--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1453567.40113658</v>
+        <v>1451976.781987813</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18746588.30087679</v>
+        <v>18746588.3008768</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1928321.613375496</v>
+        <v>1928321.613375494</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="H3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,61 +831,61 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.11631013281968</v>
+        <v>24.76484596498756</v>
       </c>
     </row>
     <row r="5">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,29 +1053,29 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>24.76484596498758</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="X7" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>100.5466725181078</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>206.3430776990165</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>29.87419267282424</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>39.75692873729349</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1353,10 +1353,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>296.7023555156622</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20.03111757870915</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>82.90314704719353</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U11" t="n">
         <v>255.6996702193238</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>71.67394033030827</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1545,10 +1545,10 @@
         <v>164.1924286780001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I13" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>161.4284329972273</v>
       </c>
       <c r="T13" t="n">
-        <v>239.1884404287796</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3606783057509</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>161.3860347826405</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>116.512591519324</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3871797622920417</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1624,7 +1624,7 @@
         <v>399.3995456585952</v>
       </c>
       <c r="H14" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>82.90314704719353</v>
       </c>
       <c r="T14" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6996702193238</v>
@@ -1669,10 +1669,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,16 +1776,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>62.12202013392454</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.1924286780001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>48.54679212674652</v>
       </c>
       <c r="I16" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486172</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924949</v>
       </c>
       <c r="G17" t="n">
         <v>399.3995456585952</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>134.2845683605909</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>277.3606783057509</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>23.5195687749825</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2083,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868351</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2244,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>47.6020599833633</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.095097653137807</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>161.4284329972273</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H25" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I25" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>161.4284329972273</v>
       </c>
       <c r="T25" t="n">
-        <v>239.1884404287796</v>
+        <v>70.49616486293858</v>
       </c>
       <c r="U25" t="n">
         <v>277.3606783057509</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.3565367007747</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>165.6433095953439</v>
+        <v>81.79175007832248</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H28" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.1884404287796</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>140.2352961657759</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>161.4284329972273</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>209.4156589611873</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.90314704719351</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T32" t="n">
         <v>214.7935231211468</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6996702193241</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3198,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>142.7441196992791</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>28.49413443704394</v>
       </c>
       <c r="S34" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.1884404287796</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>16.47392369887302</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3322,7 +3322,7 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6996702193232</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>78.96080121811644</v>
+        <v>131.9057386604147</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H37" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I37" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>161.4284329972273</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3559,7 +3559,7 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6996702193241</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3663,10 +3663,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>99.94011645985542</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>161.4284329972273</v>
@@ -3720,13 +3720,13 @@
         <v>277.3606783057509</v>
       </c>
       <c r="V40" t="n">
-        <v>118.7713094975863</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>399.3995456585952</v>
       </c>
       <c r="H41" t="n">
-        <v>153.8467105375142</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>23.59237383319715</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.448792763812623</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>161.4284329972273</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.3514905766961</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>399.3995456585952</v>
+        <v>183.4170152707633</v>
       </c>
       <c r="H44" t="n">
-        <v>98.43025211318421</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>81.823319862294</v>
+        <v>4.313399561521767</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H46" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I46" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>64.82049353730262</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270698</v>
+        <v>45.56827676270697</v>
       </c>
       <c r="E2" t="n">
         <v>23.63174095096858</v>
@@ -4333,25 +4333,25 @@
         <v>30.08445184211706</v>
       </c>
       <c r="K2" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="M2" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="N2" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="O2" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="P2" t="n">
         <v>57.91959887360855</v>
       </c>
-      <c r="L2" t="n">
-        <v>57.91959887360855</v>
-      </c>
-      <c r="M2" t="n">
-        <v>57.91959887360855</v>
-      </c>
-      <c r="N2" t="n">
-        <v>57.91959887360855</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="P2" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="R2" t="n">
         <v>112.4652405312787</v>
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C3" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D3" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E3" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F3" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G3" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H3" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J3" t="n">
-        <v>28.95979943680427</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="K3" t="n">
-        <v>28.95979943680427</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="L3" t="n">
-        <v>28.95979943680427</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="M3" t="n">
-        <v>56.79494646829576</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="N3" t="n">
-        <v>56.79494646829576</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="O3" t="n">
-        <v>84.63009349978725</v>
+        <v>93.20138886701187</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R3" t="n">
         <v>112.4652405312787</v>
@@ -4445,16 +4445,16 @@
         <v>84.0649272658043</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C4" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D4" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E4" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F4" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G4" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H4" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="I4" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L4" t="n">
         <v>30.08445184211706</v>
       </c>
       <c r="M4" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="N4" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="O4" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q4" t="n">
         <v>112.4652405312787</v>
@@ -4524,16 +4524,16 @@
         <v>112.4652405312787</v>
       </c>
       <c r="V4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W4" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X4" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="5">
@@ -4549,16 +4549,16 @@
         <v>64.82049353730262</v>
       </c>
       <c r="D5" t="n">
-        <v>45.56827676270697</v>
+        <v>45.56827676270698</v>
       </c>
       <c r="E5" t="n">
         <v>23.63174095096858</v>
       </c>
       <c r="F5" t="n">
-        <v>2.547963180772882</v>
+        <v>2.547963180772885</v>
       </c>
       <c r="G5" t="n">
-        <v>2.249304810625574</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H5" t="n">
         <v>2.249304810625575</v>
@@ -4573,19 +4573,19 @@
         <v>30.08445184211706</v>
       </c>
       <c r="L5" t="n">
-        <v>57.91959887360855</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="M5" t="n">
-        <v>57.91959887360855</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="N5" t="n">
-        <v>57.91959887360855</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="O5" t="n">
-        <v>57.91959887360855</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="P5" t="n">
-        <v>84.63009349978725</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="Q5" t="n">
         <v>84.63009349978725</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C6" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="D6" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="E6" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="F6" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="G6" t="n">
         <v>2.249304810625575</v>
@@ -4652,46 +4652,46 @@
         <v>2.249304810625575</v>
       </c>
       <c r="L6" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="M6" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="N6" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O6" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P6" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R6" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S6" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T6" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U6" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V6" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W6" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X6" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="I7" t="n">
         <v>2.249304810625575</v>
@@ -4728,19 +4728,19 @@
         <v>2.249304810625575</v>
       </c>
       <c r="K7" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L7" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M7" t="n">
-        <v>85.75474590510004</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="N7" t="n">
-        <v>85.75474590510004</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P7" t="n">
         <v>112.4652405312787</v>
@@ -4755,19 +4755,19 @@
         <v>112.4652405312787</v>
       </c>
       <c r="T7" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U7" t="n">
         <v>87.45024460704886</v>
       </c>
       <c r="V7" t="n">
-        <v>87.45024460704886</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="W7" t="n">
         <v>59.04993134157444</v>
       </c>
       <c r="X7" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="Y7" t="n">
         <v>30.6496180761</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1012.734393912848</v>
+        <v>965.3211864711366</v>
       </c>
       <c r="C8" t="n">
-        <v>585.8336639261483</v>
+        <v>538.4204564844367</v>
       </c>
       <c r="D8" t="n">
-        <v>484.2713684533122</v>
+        <v>115.1278356694369</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>93.19129985769854</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>72.10752208750284</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I8" t="n">
         <v>36.91199246082674</v>
@@ -4810,19 +4810,19 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N8" t="n">
-        <v>856.3013579804531</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O8" t="n">
-        <v>1313.087264683184</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q8" t="n">
         <v>1845.599623041337</v>
@@ -4837,19 +4837,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1190.853363938096</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>982.4260127269682</v>
       </c>
       <c r="Y8" t="n">
-        <v>1028.542354163974</v>
+        <v>981.1291467222626</v>
       </c>
     </row>
     <row r="9">
@@ -4889,22 +4889,22 @@
         <v>36.9119924608267</v>
       </c>
       <c r="L9" t="n">
-        <v>493.6978991635576</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="M9" t="n">
-        <v>950.4838058662884</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="N9" t="n">
-        <v>1407.269712569019</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="O9" t="n">
-        <v>1407.269712569019</v>
+        <v>932.027809635875</v>
       </c>
       <c r="P9" t="n">
-        <v>1407.269712569019</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>549.1137459742962</v>
+        <v>810.0398767874501</v>
       </c>
       <c r="C10" t="n">
-        <v>377.1411828532122</v>
+        <v>638.0673136663661</v>
       </c>
       <c r="D10" t="n">
-        <v>377.1411828532122</v>
+        <v>474.7505407931368</v>
       </c>
       <c r="E10" t="n">
-        <v>377.1411828532122</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="F10" t="n">
-        <v>377.1411828532122</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G10" t="n">
-        <v>210.8842131474443</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H10" t="n">
-        <v>67.0879446555987</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
         <v>36.91199246082674</v>
@@ -4986,28 +4986,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>1805.441109165283</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>1805.441109165283</v>
       </c>
       <c r="T10" t="n">
-        <v>1628.425962247645</v>
+        <v>1562.101761391183</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.241513747949</v>
+        <v>1281.917312891487</v>
       </c>
       <c r="V10" t="n">
-        <v>1066.530046355978</v>
+        <v>1000.205845499516</v>
       </c>
       <c r="W10" t="n">
-        <v>791.6776425284911</v>
+        <v>1000.205845499516</v>
       </c>
       <c r="X10" t="n">
-        <v>549.1137459742962</v>
+        <v>1000.205845499516</v>
       </c>
       <c r="Y10" t="n">
-        <v>549.1137459742962</v>
+        <v>1000.205845499516</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1356.952936089189</v>
+        <v>1211.294651184603</v>
       </c>
       <c r="C11" t="n">
-        <v>930.0522061024892</v>
+        <v>784.3939211979027</v>
       </c>
       <c r="D11" t="n">
-        <v>930.0522061024892</v>
+        <v>484.6945721921833</v>
       </c>
       <c r="E11" t="n">
-        <v>504.0752662503468</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="F11" t="n">
-        <v>78.95108443974698</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="G11" t="n">
-        <v>78.95108443974698</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="H11" t="n">
-        <v>58.71763234004077</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I11" t="n">
-        <v>58.71763234004077</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="J11" t="n">
-        <v>104.8888815435404</v>
+        <v>357.3456734326031</v>
       </c>
       <c r="K11" t="n">
-        <v>588.1273696085476</v>
+        <v>434.7894165419724</v>
       </c>
       <c r="L11" t="n">
-        <v>1314.758069816552</v>
+        <v>1161.420116749978</v>
       </c>
       <c r="M11" t="n">
-        <v>1433.479507423606</v>
+        <v>1280.141554357032</v>
       </c>
       <c r="N11" t="n">
-        <v>2160.110207631611</v>
+        <v>1401.53377280557</v>
       </c>
       <c r="O11" t="n">
-        <v>2272.570457281809</v>
+        <v>2128.164473013575</v>
       </c>
       <c r="P11" t="n">
-        <v>2362.946265858843</v>
+        <v>2854.795173221581</v>
       </c>
       <c r="Q11" t="n">
-        <v>2914.835570348072</v>
+        <v>2914.835570348075</v>
       </c>
       <c r="R11" t="n">
-        <v>2935.881617002038</v>
+        <v>2935.881617002041</v>
       </c>
       <c r="S11" t="n">
-        <v>2852.141064429115</v>
+        <v>2852.141064429118</v>
       </c>
       <c r="T11" t="n">
-        <v>2852.141064429115</v>
+        <v>2635.177909761293</v>
       </c>
       <c r="U11" t="n">
-        <v>2593.858569258081</v>
+        <v>2376.895414590259</v>
       </c>
       <c r="V11" t="n">
-        <v>2593.858569258081</v>
+        <v>2019.405999716508</v>
       </c>
       <c r="W11" t="n">
-        <v>2593.858569258081</v>
+        <v>1623.014650016855</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.138570425829</v>
+        <v>1211.294651184603</v>
       </c>
       <c r="Y11" t="n">
-        <v>1776.801300380719</v>
+        <v>1211.294651184603</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>503.1734642233257</v>
       </c>
       <c r="D12" t="n">
-        <v>399.3335057386107</v>
+        <v>399.3335057386108</v>
       </c>
       <c r="E12" t="n">
-        <v>294.6315720115479</v>
+        <v>294.631572011548</v>
       </c>
       <c r="F12" t="n">
         <v>200.9857416944521</v>
       </c>
       <c r="G12" t="n">
-        <v>107.4162827893293</v>
+        <v>107.4162827893294</v>
       </c>
       <c r="H12" t="n">
-        <v>58.71763234004077</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I12" t="n">
-        <v>59.04994818767905</v>
+        <v>82.50725403209094</v>
       </c>
       <c r="J12" t="n">
-        <v>83.49132777804959</v>
+        <v>399.0511260920526</v>
       </c>
       <c r="K12" t="n">
-        <v>738.3388583222775</v>
+        <v>453.5254957954604</v>
       </c>
       <c r="L12" t="n">
-        <v>819.1137838809858</v>
+        <v>534.3004213541687</v>
       </c>
       <c r="M12" t="n">
-        <v>1545.74448408899</v>
+        <v>631.7064406520709</v>
       </c>
       <c r="N12" t="n">
-        <v>1648.06995567586</v>
+        <v>734.0319122389411</v>
       </c>
       <c r="O12" t="n">
-        <v>1738.067054554531</v>
+        <v>1145.946509500757</v>
       </c>
       <c r="P12" t="n">
-        <v>1807.156037424522</v>
+        <v>1215.035492370749</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.228323398936</v>
+        <v>1739.77282311403</v>
       </c>
       <c r="R12" t="n">
         <v>1851.263624524063</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>894.5671223877875</v>
+        <v>1038.114164494245</v>
       </c>
       <c r="C13" t="n">
-        <v>722.5945592667035</v>
+        <v>866.1416013731615</v>
       </c>
       <c r="D13" t="n">
-        <v>650.1966397411396</v>
+        <v>702.8248284999322</v>
       </c>
       <c r="E13" t="n">
-        <v>483.9884338939931</v>
+        <v>536.6166226527857</v>
       </c>
       <c r="F13" t="n">
-        <v>312.1266596685536</v>
+        <v>364.7548484273461</v>
       </c>
       <c r="G13" t="n">
-        <v>146.2757216099676</v>
+        <v>198.9039103687601</v>
       </c>
       <c r="H13" t="n">
-        <v>146.2757216099676</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I13" t="n">
-        <v>58.71763234004077</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="J13" t="n">
         <v>144.3441399145888</v>
       </c>
       <c r="K13" t="n">
-        <v>417.1064835786983</v>
+        <v>417.1064835786984</v>
       </c>
       <c r="L13" t="n">
         <v>830.9603571550117</v>
@@ -5223,28 +5223,28 @@
         <v>2633.645422278569</v>
       </c>
       <c r="R13" t="n">
-        <v>2604.863468301757</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="S13" t="n">
-        <v>2441.804445072235</v>
+        <v>2470.586399049047</v>
       </c>
       <c r="T13" t="n">
-        <v>2200.199959790639</v>
+        <v>2470.586399049047</v>
       </c>
       <c r="U13" t="n">
-        <v>1920.037658471698</v>
+        <v>2190.424097730106</v>
       </c>
       <c r="V13" t="n">
-        <v>1638.326191079727</v>
+        <v>1908.712630338135</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.47378725224</v>
+        <v>1633.860226510648</v>
       </c>
       <c r="X13" t="n">
-        <v>1120.909890698046</v>
+        <v>1391.296329956453</v>
       </c>
       <c r="Y13" t="n">
-        <v>894.5671223877875</v>
+        <v>1228.280133206311</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1599.557635424976</v>
+        <v>1310.568319469272</v>
       </c>
       <c r="C14" t="n">
-        <v>1599.557635424976</v>
+        <v>1310.568319469272</v>
       </c>
       <c r="D14" t="n">
-        <v>1176.265014609976</v>
+        <v>887.2756986542722</v>
       </c>
       <c r="E14" t="n">
-        <v>1175.873923940994</v>
+        <v>887.2756986542722</v>
       </c>
       <c r="F14" t="n">
-        <v>750.7497421303942</v>
+        <v>462.1515168436724</v>
       </c>
       <c r="G14" t="n">
-        <v>347.3158576267627</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="H14" t="n">
-        <v>58.71763234004077</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I14" t="n">
-        <v>58.71763234004077</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="J14" t="n">
-        <v>496.6181002511666</v>
+        <v>104.8888815435405</v>
       </c>
       <c r="K14" t="n">
-        <v>574.0618433605359</v>
+        <v>831.5195817515456</v>
       </c>
       <c r="L14" t="n">
-        <v>676.1341910338281</v>
+        <v>1558.150281959551</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.764891241833</v>
+        <v>1676.871719566605</v>
       </c>
       <c r="N14" t="n">
-        <v>1524.157109690371</v>
+        <v>1798.263938015143</v>
       </c>
       <c r="O14" t="n">
-        <v>2250.787809898376</v>
+        <v>1975.925814735825</v>
       </c>
       <c r="P14" t="n">
-        <v>2362.946265858843</v>
+        <v>2702.55651494383</v>
       </c>
       <c r="Q14" t="n">
-        <v>2914.835570348072</v>
+        <v>2762.596912070324</v>
       </c>
       <c r="R14" t="n">
-        <v>2935.881617002038</v>
+        <v>2935.881617002041</v>
       </c>
       <c r="S14" t="n">
-        <v>2852.141064429115</v>
+        <v>2852.141064429118</v>
       </c>
       <c r="T14" t="n">
-        <v>2635.17790976129</v>
+        <v>2852.141064429118</v>
       </c>
       <c r="U14" t="n">
-        <v>2376.895414590256</v>
+        <v>2593.858569258084</v>
       </c>
       <c r="V14" t="n">
-        <v>2019.405999716506</v>
+        <v>2236.369154384333</v>
       </c>
       <c r="W14" t="n">
-        <v>2019.405999716506</v>
+        <v>1839.97780468468</v>
       </c>
       <c r="X14" t="n">
-        <v>2019.405999716506</v>
+        <v>1428.257805852428</v>
       </c>
       <c r="Y14" t="n">
-        <v>2019.405999716506</v>
+        <v>1428.257805852428</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>503.1734642233257</v>
       </c>
       <c r="D15" t="n">
-        <v>399.3335057386107</v>
+        <v>399.3335057386108</v>
       </c>
       <c r="E15" t="n">
-        <v>294.6315720115479</v>
+        <v>294.631572011548</v>
       </c>
       <c r="F15" t="n">
         <v>200.9857416944521</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4162827893293</v>
+        <v>107.4162827893294</v>
       </c>
       <c r="H15" t="n">
-        <v>58.71763234004077</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I15" t="n">
-        <v>59.04994818767905</v>
+        <v>82.50725403209094</v>
       </c>
       <c r="J15" t="n">
-        <v>83.49132777804959</v>
+        <v>108.3084564118586</v>
       </c>
       <c r="K15" t="n">
-        <v>137.9656974814574</v>
+        <v>775.4429941786061</v>
       </c>
       <c r="L15" t="n">
-        <v>864.5963976894618</v>
+        <v>856.2179197373144</v>
       </c>
       <c r="M15" t="n">
-        <v>962.002416987364</v>
+        <v>953.6239390352166</v>
       </c>
       <c r="N15" t="n">
-        <v>1064.327888574234</v>
+        <v>1055.949410622087</v>
       </c>
       <c r="O15" t="n">
-        <v>1154.324987452904</v>
+        <v>1145.946509500757</v>
       </c>
       <c r="P15" t="n">
-        <v>1807.156037424522</v>
+        <v>1215.035492370749</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.228323398936</v>
+        <v>1739.77282311403</v>
       </c>
       <c r="R15" t="n">
         <v>1851.263624524063</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>704.4011536757218</v>
+        <v>946.9650502299166</v>
       </c>
       <c r="C16" t="n">
-        <v>704.4011536757218</v>
+        <v>774.9924871088326</v>
       </c>
       <c r="D16" t="n">
-        <v>541.0843808024925</v>
+        <v>611.6757142356033</v>
       </c>
       <c r="E16" t="n">
-        <v>374.8761749553461</v>
+        <v>445.4675083884568</v>
       </c>
       <c r="F16" t="n">
-        <v>312.1266596685536</v>
+        <v>273.6057341630172</v>
       </c>
       <c r="G16" t="n">
-        <v>146.2757216099676</v>
+        <v>107.7547961044313</v>
       </c>
       <c r="H16" t="n">
-        <v>146.2757216099676</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I16" t="n">
-        <v>58.71763234004077</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="J16" t="n">
         <v>144.3441399145888</v>
       </c>
       <c r="K16" t="n">
-        <v>417.1064835786983</v>
+        <v>417.1064835786984</v>
       </c>
       <c r="L16" t="n">
         <v>830.9603571550117</v>
@@ -5478,10 +5478,10 @@
         <v>1363.47378725224</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.909890698046</v>
+        <v>1363.47378725224</v>
       </c>
       <c r="Y16" t="n">
-        <v>894.5671223877875</v>
+        <v>1137.131018941982</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2494.206157405997</v>
+        <v>2494.206157405998</v>
       </c>
       <c r="C17" t="n">
-        <v>2067.305427419297</v>
+        <v>2067.305427419298</v>
       </c>
       <c r="D17" t="n">
-        <v>1644.012806604297</v>
+        <v>1644.012806604298</v>
       </c>
       <c r="E17" t="n">
-        <v>1218.035866752155</v>
+        <v>1218.035866752156</v>
       </c>
       <c r="F17" t="n">
         <v>792.911684941555</v>
       </c>
       <c r="G17" t="n">
-        <v>389.4778004379235</v>
+        <v>389.4778004379234</v>
       </c>
       <c r="H17" t="n">
         <v>100.8795751512015</v>
@@ -5515,52 +5515,52 @@
         <v>100.8795751512015</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0508243547012</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K17" t="n">
-        <v>657.2791515620399</v>
+        <v>657.279151562039</v>
       </c>
       <c r="L17" t="n">
-        <v>1726.905468862906</v>
+        <v>1726.905468862905</v>
       </c>
       <c r="M17" t="n">
-        <v>1845.62690646996</v>
+        <v>1845.626906469959</v>
       </c>
       <c r="N17" t="n">
-        <v>2980.177010011301</v>
+        <v>2980.1770100113</v>
       </c>
       <c r="O17" t="n">
-        <v>3974.798959574776</v>
+        <v>3974.798959574775</v>
       </c>
       <c r="P17" t="n">
-        <v>4810.653655501866</v>
+        <v>4810.653655501865</v>
       </c>
       <c r="Q17" t="n">
-        <v>4870.69405262836</v>
+        <v>4870.694052628359</v>
       </c>
       <c r="R17" t="n">
-        <v>5043.978757560077</v>
+        <v>5043.978757560076</v>
       </c>
       <c r="S17" t="n">
-        <v>4960.238204987154</v>
+        <v>4960.238204987153</v>
       </c>
       <c r="T17" t="n">
-        <v>4743.275050319329</v>
+        <v>4743.275050319328</v>
       </c>
       <c r="U17" t="n">
-        <v>4484.992555148295</v>
+        <v>4484.992555148294</v>
       </c>
       <c r="V17" t="n">
         <v>4127.503140274544</v>
       </c>
       <c r="W17" t="n">
-        <v>3731.111790574892</v>
+        <v>3731.111790574891</v>
       </c>
       <c r="X17" t="n">
-        <v>3319.391791742639</v>
+        <v>3319.391791742638</v>
       </c>
       <c r="Y17" t="n">
-        <v>2914.054521697529</v>
+        <v>2914.054521697528</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I18" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432517</v>
       </c>
       <c r="J18" t="n">
-        <v>125.6532705892104</v>
+        <v>150.4703992230194</v>
       </c>
       <c r="K18" t="n">
-        <v>180.1276402926181</v>
+        <v>817.6049369897669</v>
       </c>
       <c r="L18" t="n">
-        <v>1119.99130978132</v>
+        <v>898.3798625484752</v>
       </c>
       <c r="M18" t="n">
-        <v>1217.397329079222</v>
+        <v>995.7858818463774</v>
       </c>
       <c r="N18" t="n">
-        <v>1690.231898487021</v>
+        <v>1098.111353433248</v>
       </c>
       <c r="O18" t="n">
-        <v>1780.228997365691</v>
+        <v>1188.108452311918</v>
       </c>
       <c r="P18" t="n">
-        <v>1849.317980235683</v>
+        <v>1257.197435181909</v>
       </c>
       <c r="Q18" t="n">
-        <v>1887.390266210097</v>
+        <v>1781.934765925191</v>
       </c>
       <c r="R18" t="n">
         <v>1893.425567335224</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>746.5630964868826</v>
+        <v>1004.517423702104</v>
       </c>
       <c r="C19" t="n">
-        <v>574.5905333657986</v>
+        <v>832.5448605810197</v>
       </c>
       <c r="D19" t="n">
-        <v>574.5905333657986</v>
+        <v>832.5448605810197</v>
       </c>
       <c r="E19" t="n">
-        <v>408.3823275186521</v>
+        <v>666.3366547338733</v>
       </c>
       <c r="F19" t="n">
-        <v>236.5205532932125</v>
+        <v>494.4748805084337</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8795751512015</v>
+        <v>328.6239424498477</v>
       </c>
       <c r="H19" t="n">
-        <v>100.8795751512015</v>
+        <v>188.4376644211283</v>
       </c>
       <c r="I19" t="n">
         <v>100.8795751512015</v>
@@ -5709,16 +5709,16 @@
         <v>1962.199601282859</v>
       </c>
       <c r="V19" t="n">
-        <v>1680.488133890888</v>
+        <v>1938.442461106109</v>
       </c>
       <c r="W19" t="n">
-        <v>1405.635730063401</v>
+        <v>1663.590057278622</v>
       </c>
       <c r="X19" t="n">
-        <v>1163.071833509206</v>
+        <v>1421.026160724427</v>
       </c>
       <c r="Y19" t="n">
-        <v>936.7290651989483</v>
+        <v>1194.683392414169</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2494.206157405999</v>
+        <v>2494.206157405997</v>
       </c>
       <c r="C20" t="n">
         <v>2067.305427419297</v>
@@ -5740,10 +5740,10 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F20" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415554</v>
       </c>
       <c r="G20" t="n">
-        <v>389.4778004379235</v>
+        <v>389.4778004379234</v>
       </c>
       <c r="H20" t="n">
         <v>100.8795751512015</v>
@@ -5752,52 +5752,52 @@
         <v>100.8795751512015</v>
       </c>
       <c r="J20" t="n">
-        <v>147.0508243547012</v>
+        <v>502.4677816981274</v>
       </c>
       <c r="K20" t="n">
-        <v>583.4900695001177</v>
+        <v>1330.826787569857</v>
       </c>
       <c r="L20" t="n">
-        <v>685.5624171734098</v>
+        <v>2400.453104870723</v>
       </c>
       <c r="M20" t="n">
-        <v>1845.62690646996</v>
+        <v>2519.174542477777</v>
       </c>
       <c r="N20" t="n">
-        <v>2980.177010011301</v>
+        <v>2640.566760926316</v>
       </c>
       <c r="O20" t="n">
-        <v>3974.798959574776</v>
+        <v>3635.188710489791</v>
       </c>
       <c r="P20" t="n">
-        <v>4810.653655501866</v>
+        <v>4471.04340641688</v>
       </c>
       <c r="Q20" t="n">
-        <v>4870.69405262836</v>
+        <v>5022.93271090611</v>
       </c>
       <c r="R20" t="n">
-        <v>5043.978757560077</v>
+        <v>5043.978757560076</v>
       </c>
       <c r="S20" t="n">
-        <v>4960.238204987154</v>
+        <v>4960.238204987153</v>
       </c>
       <c r="T20" t="n">
-        <v>4743.275050319329</v>
+        <v>4743.275050319328</v>
       </c>
       <c r="U20" t="n">
-        <v>4484.992555148295</v>
+        <v>4484.992555148294</v>
       </c>
       <c r="V20" t="n">
-        <v>4127.503140274544</v>
+        <v>4127.503140274543</v>
       </c>
       <c r="W20" t="n">
-        <v>3731.111790574892</v>
+        <v>3731.111790574889</v>
       </c>
       <c r="X20" t="n">
-        <v>3319.391791742639</v>
+        <v>3319.391791742637</v>
       </c>
       <c r="Y20" t="n">
-        <v>2914.054521697529</v>
+        <v>2914.054521697527</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I21" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432517</v>
       </c>
       <c r="J21" t="n">
-        <v>125.6532705892104</v>
+        <v>150.4703992230194</v>
       </c>
       <c r="K21" t="n">
-        <v>180.1276402926181</v>
+        <v>817.6049369897669</v>
       </c>
       <c r="L21" t="n">
-        <v>260.9025658513265</v>
+        <v>898.3798625484752</v>
       </c>
       <c r="M21" t="n">
-        <v>744.700076783967</v>
+        <v>995.7858818463774</v>
       </c>
       <c r="N21" t="n">
-        <v>847.0255483708372</v>
+        <v>1098.111353433248</v>
       </c>
       <c r="O21" t="n">
-        <v>937.0226472495075</v>
+        <v>1188.108452311918</v>
       </c>
       <c r="P21" t="n">
-        <v>1743.862479950777</v>
+        <v>1257.197435181909</v>
       </c>
       <c r="Q21" t="n">
         <v>1781.934765925191</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>746.5630964868826</v>
+        <v>775.3450504636946</v>
       </c>
       <c r="C22" t="n">
-        <v>574.5905333657986</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="D22" t="n">
-        <v>526.5076444937145</v>
+        <v>440.0557144693813</v>
       </c>
       <c r="E22" t="n">
-        <v>360.299438646568</v>
+        <v>273.8475086222348</v>
       </c>
       <c r="F22" t="n">
-        <v>188.4376644211284</v>
+        <v>101.9857343967953</v>
       </c>
       <c r="G22" t="n">
-        <v>188.4376644211284</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="H22" t="n">
-        <v>188.4376644211284</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I22" t="n">
         <v>100.8795751512015</v>
@@ -5934,28 +5934,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R22" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S22" t="n">
-        <v>2483.966387883395</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T22" t="n">
-        <v>2242.3619026018</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U22" t="n">
-        <v>1962.199601282859</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V22" t="n">
-        <v>1680.488133890888</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.635730063401</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="X22" t="n">
-        <v>1163.071833509206</v>
+        <v>1191.853787486018</v>
       </c>
       <c r="Y22" t="n">
-        <v>936.7290651989483</v>
+        <v>965.5110191757603</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F23" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415554</v>
       </c>
       <c r="G23" t="n">
-        <v>389.4778004379241</v>
+        <v>389.4778004379234</v>
       </c>
       <c r="H23" t="n">
         <v>100.8795751512015</v>
@@ -5992,31 +5992,31 @@
         <v>147.0508243547012</v>
       </c>
       <c r="K23" t="n">
-        <v>224.4945674640705</v>
+        <v>809.5178098397898</v>
       </c>
       <c r="L23" t="n">
-        <v>1294.120884764936</v>
+        <v>1879.144127140655</v>
       </c>
       <c r="M23" t="n">
-        <v>2454.185374061486</v>
+        <v>1997.86556474771</v>
       </c>
       <c r="N23" t="n">
-        <v>3588.735477602827</v>
+        <v>3132.415668289051</v>
       </c>
       <c r="O23" t="n">
-        <v>3974.798959574776</v>
+        <v>4127.037617852526</v>
       </c>
       <c r="P23" t="n">
-        <v>4810.653655501866</v>
+        <v>4962.892313779616</v>
       </c>
       <c r="Q23" t="n">
-        <v>4870.69405262836</v>
+        <v>5022.93271090611</v>
       </c>
       <c r="R23" t="n">
-        <v>5043.978757560077</v>
+        <v>5043.978757560076</v>
       </c>
       <c r="S23" t="n">
-        <v>4960.238204987154</v>
+        <v>4960.238204987153</v>
       </c>
       <c r="T23" t="n">
         <v>4743.275050319328</v>
@@ -6068,25 +6068,25 @@
         <v>101.2118909988398</v>
       </c>
       <c r="J24" t="n">
-        <v>125.6532705892104</v>
+        <v>417.7557630588014</v>
       </c>
       <c r="K24" t="n">
-        <v>180.1276402926181</v>
+        <v>1084.890300825549</v>
       </c>
       <c r="L24" t="n">
-        <v>260.9025658513265</v>
+        <v>1165.665226384257</v>
       </c>
       <c r="M24" t="n">
-        <v>358.3085851492286</v>
+        <v>1263.071245682159</v>
       </c>
       <c r="N24" t="n">
-        <v>460.6340567360988</v>
+        <v>1365.39671726903</v>
       </c>
       <c r="O24" t="n">
-        <v>1293.563952596823</v>
+        <v>1455.3938161477</v>
       </c>
       <c r="P24" t="n">
-        <v>1362.652935466815</v>
+        <v>1524.482799017691</v>
       </c>
       <c r="Q24" t="n">
         <v>1887.390266210097</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>830.1214842913075</v>
+        <v>916.9593344321769</v>
       </c>
       <c r="C25" t="n">
-        <v>658.1489211702235</v>
+        <v>744.9867713110929</v>
       </c>
       <c r="D25" t="n">
-        <v>494.8321482969942</v>
+        <v>744.9867713110929</v>
       </c>
       <c r="E25" t="n">
-        <v>328.6239424498477</v>
+        <v>578.7785654639464</v>
       </c>
       <c r="F25" t="n">
-        <v>328.6239424498477</v>
+        <v>406.9167912385068</v>
       </c>
       <c r="G25" t="n">
-        <v>328.6239424498477</v>
+        <v>241.0658531799209</v>
       </c>
       <c r="H25" t="n">
-        <v>188.4376644211284</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I25" t="n">
         <v>100.8795751512015</v>
@@ -6177,22 +6177,22 @@
         <v>2483.966387883395</v>
       </c>
       <c r="T25" t="n">
-        <v>2242.3619026018</v>
+        <v>2412.758140547094</v>
       </c>
       <c r="U25" t="n">
-        <v>1962.199601282859</v>
+        <v>2132.595839228153</v>
       </c>
       <c r="V25" t="n">
-        <v>1680.488133890888</v>
+        <v>1850.884371836182</v>
       </c>
       <c r="W25" t="n">
-        <v>1405.635730063401</v>
+        <v>1576.031968008695</v>
       </c>
       <c r="X25" t="n">
-        <v>1163.071833509206</v>
+        <v>1333.4680714545</v>
       </c>
       <c r="Y25" t="n">
-        <v>1020.287453003373</v>
+        <v>1107.125303144242</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F26" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415545</v>
       </c>
       <c r="G26" t="n">
-        <v>389.4778004379241</v>
+        <v>389.4778004379232</v>
       </c>
       <c r="H26" t="n">
-        <v>100.8795751512015</v>
+        <v>100.8795751512016</v>
       </c>
       <c r="I26" t="n">
         <v>100.8795751512015</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0508243547012</v>
+        <v>147.0508243547011</v>
       </c>
       <c r="K26" t="n">
-        <v>224.4945674640705</v>
+        <v>975.4098302264308</v>
       </c>
       <c r="L26" t="n">
-        <v>1294.120884764936</v>
+        <v>2045.036147527296</v>
       </c>
       <c r="M26" t="n">
-        <v>2454.185374061486</v>
+        <v>2163.757585134351</v>
       </c>
       <c r="N26" t="n">
-        <v>3588.735477602827</v>
+        <v>3298.307688675692</v>
       </c>
       <c r="O26" t="n">
-        <v>4583.357427166302</v>
+        <v>4292.929638239167</v>
       </c>
       <c r="P26" t="n">
-        <v>4810.653655501866</v>
+        <v>4471.043406416879</v>
       </c>
       <c r="Q26" t="n">
-        <v>4870.69405262836</v>
+        <v>5022.932710906109</v>
       </c>
       <c r="R26" t="n">
-        <v>5043.978757560077</v>
+        <v>5043.978757560075</v>
       </c>
       <c r="S26" t="n">
-        <v>4960.238204987154</v>
+        <v>4960.238204987152</v>
       </c>
       <c r="T26" t="n">
-        <v>4743.275050319328</v>
+        <v>4743.275050319327</v>
       </c>
       <c r="U26" t="n">
         <v>4484.992555148294</v>
@@ -6281,64 +6281,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>662.8413105169817</v>
+        <v>662.8413105169816</v>
       </c>
       <c r="C27" t="n">
-        <v>545.3354070344865</v>
+        <v>545.3354070344864</v>
       </c>
       <c r="D27" t="n">
-        <v>441.4954485497715</v>
+        <v>441.4954485497714</v>
       </c>
       <c r="E27" t="n">
-        <v>336.7935148227087</v>
+        <v>336.7935148227086</v>
       </c>
       <c r="F27" t="n">
-        <v>243.1476845056129</v>
+        <v>243.1476845056128</v>
       </c>
       <c r="G27" t="n">
-        <v>149.5782256004901</v>
+        <v>149.57822560049</v>
       </c>
       <c r="H27" t="n">
         <v>100.8795751512015</v>
       </c>
       <c r="I27" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J27" t="n">
-        <v>125.6532705892104</v>
+        <v>149.1105764336222</v>
       </c>
       <c r="K27" t="n">
-        <v>792.7878083559578</v>
+        <v>203.58494613703</v>
       </c>
       <c r="L27" t="n">
-        <v>1490.500407602249</v>
+        <v>284.3598716957384</v>
       </c>
       <c r="M27" t="n">
-        <v>1587.906426900151</v>
+        <v>381.7658909936405</v>
       </c>
       <c r="N27" t="n">
-        <v>1690.231898487021</v>
+        <v>484.0913625805107</v>
       </c>
       <c r="O27" t="n">
-        <v>1780.228997365691</v>
+        <v>1486.509910295653</v>
       </c>
       <c r="P27" t="n">
-        <v>1849.317980235683</v>
+        <v>1555.598893165644</v>
       </c>
       <c r="Q27" t="n">
-        <v>1887.390266210097</v>
+        <v>1887.390266210096</v>
       </c>
       <c r="R27" t="n">
-        <v>1893.425567335224</v>
+        <v>1893.425567335223</v>
       </c>
       <c r="S27" t="n">
-        <v>1821.0972191739</v>
+        <v>1821.097219173899</v>
       </c>
       <c r="T27" t="n">
-        <v>1681.169404235675</v>
+        <v>1681.169404235674</v>
       </c>
       <c r="U27" t="n">
-        <v>1496.433070844606</v>
+        <v>1496.433070844605</v>
       </c>
       <c r="V27" t="n">
         <v>1291.459931983872</v>
@@ -6347,10 +6347,10 @@
         <v>1094.938554817089</v>
       </c>
       <c r="X27" t="n">
-        <v>931.4612085837521</v>
+        <v>931.461208583752</v>
       </c>
       <c r="Y27" t="n">
-        <v>791.7683199370445</v>
+        <v>791.7683199370443</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>746.5630964868826</v>
+        <v>938.404073693217</v>
       </c>
       <c r="C28" t="n">
-        <v>574.5905333657986</v>
+        <v>766.431510572133</v>
       </c>
       <c r="D28" t="n">
-        <v>574.5905333657986</v>
+        <v>603.1147376989037</v>
       </c>
       <c r="E28" t="n">
-        <v>408.3823275186521</v>
+        <v>436.9065318517572</v>
       </c>
       <c r="F28" t="n">
-        <v>241.0658531799209</v>
+        <v>354.2886024797143</v>
       </c>
       <c r="G28" t="n">
-        <v>241.0658531799209</v>
+        <v>188.4376644211283</v>
       </c>
       <c r="H28" t="n">
-        <v>100.8795751512015</v>
+        <v>188.4376644211283</v>
       </c>
       <c r="I28" t="n">
         <v>100.8795751512015</v>
@@ -6408,28 +6408,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R28" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S28" t="n">
-        <v>2483.966387883395</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="T28" t="n">
-        <v>2242.3619026018</v>
+        <v>2434.202879808134</v>
       </c>
       <c r="U28" t="n">
-        <v>1962.199601282859</v>
+        <v>2154.040578489194</v>
       </c>
       <c r="V28" t="n">
-        <v>1680.488133890888</v>
+        <v>1872.329111097222</v>
       </c>
       <c r="W28" t="n">
-        <v>1405.635730063401</v>
+        <v>1597.476707269735</v>
       </c>
       <c r="X28" t="n">
-        <v>1163.071833509206</v>
+        <v>1354.912810715541</v>
       </c>
       <c r="Y28" t="n">
-        <v>936.7290651989483</v>
+        <v>1128.570042405283</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F29" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415545</v>
       </c>
       <c r="G29" t="n">
-        <v>389.4778004379241</v>
+        <v>389.4778004379232</v>
       </c>
       <c r="H29" t="n">
-        <v>100.8795751512015</v>
+        <v>100.8795751512016</v>
       </c>
       <c r="I29" t="n">
         <v>100.8795751512015</v>
       </c>
       <c r="J29" t="n">
-        <v>147.0508243547012</v>
+        <v>147.0508243547011</v>
       </c>
       <c r="K29" t="n">
         <v>975.4098302264308</v>
@@ -6475,25 +6475,25 @@
         <v>2163.757585134351</v>
       </c>
       <c r="N29" t="n">
-        <v>2488.328102648566</v>
+        <v>3298.307688675692</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.950052212041</v>
+        <v>4292.929638239167</v>
       </c>
       <c r="P29" t="n">
-        <v>4318.80474813913</v>
+        <v>4962.892313779615</v>
       </c>
       <c r="Q29" t="n">
-        <v>4870.69405262836</v>
+        <v>5022.932710906109</v>
       </c>
       <c r="R29" t="n">
-        <v>5043.978757560077</v>
+        <v>5043.978757560075</v>
       </c>
       <c r="S29" t="n">
-        <v>4960.238204987154</v>
+        <v>4960.238204987152</v>
       </c>
       <c r="T29" t="n">
-        <v>4743.275050319328</v>
+        <v>4743.275050319327</v>
       </c>
       <c r="U29" t="n">
         <v>4484.992555148294</v>
@@ -6518,64 +6518,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>662.8413105169817</v>
+        <v>662.8413105169816</v>
       </c>
       <c r="C30" t="n">
-        <v>545.3354070344865</v>
+        <v>545.3354070344864</v>
       </c>
       <c r="D30" t="n">
-        <v>441.4954485497715</v>
+        <v>441.4954485497714</v>
       </c>
       <c r="E30" t="n">
-        <v>336.7935148227087</v>
+        <v>336.7935148227086</v>
       </c>
       <c r="F30" t="n">
-        <v>243.1476845056129</v>
+        <v>243.1476845056128</v>
       </c>
       <c r="G30" t="n">
-        <v>149.5782256004901</v>
+        <v>149.57822560049</v>
       </c>
       <c r="H30" t="n">
         <v>100.8795751512015</v>
       </c>
       <c r="I30" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J30" t="n">
-        <v>125.6532705892104</v>
+        <v>441.2130689032133</v>
       </c>
       <c r="K30" t="n">
-        <v>180.1276402926181</v>
+        <v>1108.347606669961</v>
       </c>
       <c r="L30" t="n">
-        <v>260.9025658513265</v>
+        <v>1189.122532228669</v>
       </c>
       <c r="M30" t="n">
-        <v>358.3085851492286</v>
+        <v>1286.528551526571</v>
       </c>
       <c r="N30" t="n">
-        <v>847.0255483708372</v>
+        <v>1388.854023113442</v>
       </c>
       <c r="O30" t="n">
-        <v>937.0226472495075</v>
+        <v>1478.851121992112</v>
       </c>
       <c r="P30" t="n">
-        <v>1743.862479950777</v>
+        <v>1547.940104862103</v>
       </c>
       <c r="Q30" t="n">
         <v>1781.934765925191</v>
       </c>
       <c r="R30" t="n">
-        <v>1893.425567335224</v>
+        <v>1893.425567335223</v>
       </c>
       <c r="S30" t="n">
-        <v>1821.0972191739</v>
+        <v>1821.097219173899</v>
       </c>
       <c r="T30" t="n">
-        <v>1681.169404235675</v>
+        <v>1681.169404235674</v>
       </c>
       <c r="U30" t="n">
-        <v>1496.433070844606</v>
+        <v>1496.433070844605</v>
       </c>
       <c r="V30" t="n">
         <v>1291.459931983872</v>
@@ -6584,10 +6584,10 @@
         <v>1094.938554817089</v>
       </c>
       <c r="X30" t="n">
-        <v>931.4612085837521</v>
+        <v>931.461208583752</v>
       </c>
       <c r="Y30" t="n">
-        <v>791.7683199370445</v>
+        <v>791.7683199370443</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>746.5630964868826</v>
+        <v>838.6664856435177</v>
       </c>
       <c r="C31" t="n">
-        <v>574.5905333657986</v>
+        <v>666.6939225224337</v>
       </c>
       <c r="D31" t="n">
-        <v>432.938719056934</v>
+        <v>666.6939225224337</v>
       </c>
       <c r="E31" t="n">
-        <v>266.7305132097875</v>
+        <v>500.4857166752872</v>
       </c>
       <c r="F31" t="n">
-        <v>266.7305132097875</v>
+        <v>328.6239424498476</v>
       </c>
       <c r="G31" t="n">
-        <v>100.8795751512015</v>
+        <v>328.6239424498476</v>
       </c>
       <c r="H31" t="n">
-        <v>100.8795751512015</v>
+        <v>188.4376644211283</v>
       </c>
       <c r="I31" t="n">
         <v>100.8795751512015</v>
@@ -6645,28 +6645,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R31" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S31" t="n">
-        <v>2483.966387883395</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T31" t="n">
-        <v>2242.3619026018</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U31" t="n">
-        <v>1962.199601282859</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V31" t="n">
-        <v>1680.488133890888</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W31" t="n">
-        <v>1405.635730063401</v>
+        <v>1497.739119220036</v>
       </c>
       <c r="X31" t="n">
-        <v>1163.071833509206</v>
+        <v>1255.175222665841</v>
       </c>
       <c r="Y31" t="n">
-        <v>936.7290651989483</v>
+        <v>1028.832454355583</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F32" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415549</v>
       </c>
       <c r="G32" t="n">
         <v>389.4778004379234</v>
@@ -6700,49 +6700,49 @@
         <v>100.8795751512015</v>
       </c>
       <c r="J32" t="n">
-        <v>147.0508243547011</v>
+        <v>350.2291234203748</v>
       </c>
       <c r="K32" t="n">
-        <v>224.4945674640705</v>
+        <v>1178.588129292104</v>
       </c>
       <c r="L32" t="n">
-        <v>1294.120884764936</v>
+        <v>2248.21444659297</v>
       </c>
       <c r="M32" t="n">
-        <v>1845.626906469958</v>
+        <v>2366.935884200024</v>
       </c>
       <c r="N32" t="n">
-        <v>2980.177010011299</v>
+        <v>2488.328102648563</v>
       </c>
       <c r="O32" t="n">
-        <v>3974.798959574774</v>
+        <v>3482.950052212038</v>
       </c>
       <c r="P32" t="n">
-        <v>4810.653655501864</v>
+        <v>4318.804748139128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4870.694052628358</v>
+        <v>4870.694052628357</v>
       </c>
       <c r="R32" t="n">
-        <v>5043.978757560075</v>
+        <v>5043.978757560074</v>
       </c>
       <c r="S32" t="n">
-        <v>4960.238204987152</v>
+        <v>4960.238204987151</v>
       </c>
       <c r="T32" t="n">
         <v>4743.275050319327</v>
       </c>
       <c r="U32" t="n">
-        <v>4484.992555148293</v>
+        <v>4484.992555148292</v>
       </c>
       <c r="V32" t="n">
-        <v>4127.503140274543</v>
+        <v>4127.503140274542</v>
       </c>
       <c r="W32" t="n">
-        <v>3731.11179057489</v>
+        <v>3731.111790574889</v>
       </c>
       <c r="X32" t="n">
-        <v>3319.391791742637</v>
+        <v>3319.391791742636</v>
       </c>
       <c r="Y32" t="n">
         <v>2914.054521697527</v>
@@ -6776,28 +6776,28 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I33" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J33" t="n">
-        <v>125.6532705892103</v>
+        <v>441.2130689032132</v>
       </c>
       <c r="K33" t="n">
-        <v>180.1276402926181</v>
+        <v>817.6049369897664</v>
       </c>
       <c r="L33" t="n">
-        <v>260.9025658513265</v>
+        <v>898.3798625484748</v>
       </c>
       <c r="M33" t="n">
-        <v>358.3085851492286</v>
+        <v>995.7858818463769</v>
       </c>
       <c r="N33" t="n">
-        <v>460.6340567360988</v>
+        <v>1098.111353433247</v>
       </c>
       <c r="O33" t="n">
-        <v>550.6311556147691</v>
+        <v>1188.108452311917</v>
       </c>
       <c r="P33" t="n">
-        <v>1357.470988316039</v>
+        <v>1257.197435181909</v>
       </c>
       <c r="Q33" t="n">
         <v>1781.934765925191</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>746.5630964868826</v>
+        <v>1167.834196575333</v>
       </c>
       <c r="C34" t="n">
-        <v>574.5905333657986</v>
+        <v>995.8616334542489</v>
       </c>
       <c r="D34" t="n">
-        <v>411.2737604925693</v>
+        <v>832.5448605810196</v>
       </c>
       <c r="E34" t="n">
-        <v>245.0655546454228</v>
+        <v>666.3366547338732</v>
       </c>
       <c r="F34" t="n">
-        <v>245.0655546454228</v>
+        <v>494.4748805084336</v>
       </c>
       <c r="G34" t="n">
-        <v>100.8795751512015</v>
+        <v>328.6239424498476</v>
       </c>
       <c r="H34" t="n">
-        <v>100.8795751512015</v>
+        <v>188.4376644211283</v>
       </c>
       <c r="I34" t="n">
         <v>100.8795751512015</v>
@@ -6861,49 +6861,49 @@
         <v>186.5060827257495</v>
       </c>
       <c r="K34" t="n">
-        <v>459.2684263898591</v>
+        <v>459.268426389859</v>
       </c>
       <c r="L34" t="n">
-        <v>873.1222999661725</v>
+        <v>873.1222999661724</v>
       </c>
       <c r="M34" t="n">
         <v>1326.688819835327</v>
       </c>
       <c r="N34" t="n">
-        <v>1765.077781399947</v>
+        <v>1765.077781399946</v>
       </c>
       <c r="O34" t="n">
         <v>2176.754562328631</v>
       </c>
       <c r="P34" t="n">
-        <v>2515.484213504434</v>
+        <v>2515.484213504433</v>
       </c>
       <c r="Q34" t="n">
         <v>2675.80736508973</v>
       </c>
       <c r="R34" t="n">
-        <v>2647.025411112918</v>
+        <v>2647.025411112917</v>
       </c>
       <c r="S34" t="n">
-        <v>2483.966387883395</v>
+        <v>2647.025411112917</v>
       </c>
       <c r="T34" t="n">
-        <v>2242.3619026018</v>
+        <v>2405.420925831322</v>
       </c>
       <c r="U34" t="n">
-        <v>1962.199601282859</v>
+        <v>2125.258624512381</v>
       </c>
       <c r="V34" t="n">
-        <v>1680.488133890888</v>
+        <v>1843.54715712041</v>
       </c>
       <c r="W34" t="n">
-        <v>1405.635730063401</v>
+        <v>1826.906830151851</v>
       </c>
       <c r="X34" t="n">
-        <v>1163.071833509206</v>
+        <v>1584.342933597657</v>
       </c>
       <c r="Y34" t="n">
-        <v>936.7290651989483</v>
+        <v>1358.000165287399</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F35" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415554</v>
       </c>
       <c r="G35" t="n">
         <v>389.4778004379234</v>
@@ -6937,37 +6937,37 @@
         <v>100.8795751512015</v>
       </c>
       <c r="J35" t="n">
-        <v>147.0508243547011</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K35" t="n">
-        <v>224.4945674640705</v>
+        <v>616.2237861716967</v>
       </c>
       <c r="L35" t="n">
-        <v>1206.871394903475</v>
+        <v>1228.1138680017</v>
       </c>
       <c r="M35" t="n">
-        <v>2366.935884200025</v>
+        <v>2388.17835729825</v>
       </c>
       <c r="N35" t="n">
-        <v>2488.328102648564</v>
+        <v>3522.728460839592</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.950052212039</v>
+        <v>3635.188710489791</v>
       </c>
       <c r="P35" t="n">
-        <v>4318.804748139129</v>
+        <v>4471.04340641688</v>
       </c>
       <c r="Q35" t="n">
-        <v>4870.694052628358</v>
+        <v>5022.93271090611</v>
       </c>
       <c r="R35" t="n">
-        <v>5043.978757560075</v>
+        <v>5043.978757560076</v>
       </c>
       <c r="S35" t="n">
-        <v>4960.238204987152</v>
+        <v>4960.238204987153</v>
       </c>
       <c r="T35" t="n">
-        <v>4743.275050319327</v>
+        <v>4743.275050319328</v>
       </c>
       <c r="U35" t="n">
         <v>4484.992555148294</v>
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>662.8413105169816</v>
+        <v>662.8413105169817</v>
       </c>
       <c r="C36" t="n">
-        <v>545.3354070344864</v>
+        <v>545.3354070344865</v>
       </c>
       <c r="D36" t="n">
-        <v>441.4954485497714</v>
+        <v>441.4954485497715</v>
       </c>
       <c r="E36" t="n">
-        <v>336.7935148227086</v>
+        <v>336.7935148227087</v>
       </c>
       <c r="F36" t="n">
-        <v>243.1476845056128</v>
+        <v>243.1476845056129</v>
       </c>
       <c r="G36" t="n">
-        <v>149.57822560049</v>
+        <v>149.5782256004901</v>
       </c>
       <c r="H36" t="n">
         <v>100.8795751512015</v>
       </c>
       <c r="I36" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432517</v>
       </c>
       <c r="J36" t="n">
-        <v>417.7557630588014</v>
+        <v>150.4703992230194</v>
       </c>
       <c r="K36" t="n">
-        <v>472.2301327622092</v>
+        <v>817.6049369897669</v>
       </c>
       <c r="L36" t="n">
-        <v>553.0050583209177</v>
+        <v>898.3798625484752</v>
       </c>
       <c r="M36" t="n">
-        <v>650.4110776188198</v>
+        <v>995.7858818463774</v>
       </c>
       <c r="N36" t="n">
-        <v>752.73654920569</v>
+        <v>1098.111353433248</v>
       </c>
       <c r="O36" t="n">
-        <v>842.7336480843603</v>
+        <v>1188.108452311918</v>
       </c>
       <c r="P36" t="n">
         <v>1257.197435181909</v>
@@ -7040,16 +7040,16 @@
         <v>1781.934765925191</v>
       </c>
       <c r="R36" t="n">
-        <v>1893.425567335223</v>
+        <v>1893.425567335224</v>
       </c>
       <c r="S36" t="n">
-        <v>1821.097219173899</v>
+        <v>1821.0972191739</v>
       </c>
       <c r="T36" t="n">
-        <v>1681.169404235674</v>
+        <v>1681.169404235675</v>
       </c>
       <c r="U36" t="n">
-        <v>1496.433070844605</v>
+        <v>1496.433070844606</v>
       </c>
       <c r="V36" t="n">
         <v>1291.459931983872</v>
@@ -7058,10 +7058,10 @@
         <v>1094.938554817089</v>
       </c>
       <c r="X36" t="n">
-        <v>931.461208583752</v>
+        <v>931.4612085837521</v>
       </c>
       <c r="Y36" t="n">
-        <v>791.7683199370443</v>
+        <v>791.7683199370445</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>746.5630964868826</v>
+        <v>1050.197454291182</v>
       </c>
       <c r="C37" t="n">
-        <v>574.5905333657986</v>
+        <v>878.2248911700976</v>
       </c>
       <c r="D37" t="n">
-        <v>494.8321482969941</v>
+        <v>744.9867713110929</v>
       </c>
       <c r="E37" t="n">
-        <v>328.6239424498476</v>
+        <v>578.7785654639464</v>
       </c>
       <c r="F37" t="n">
-        <v>328.6239424498476</v>
+        <v>406.9167912385068</v>
       </c>
       <c r="G37" t="n">
-        <v>328.6239424498476</v>
+        <v>241.0658531799209</v>
       </c>
       <c r="H37" t="n">
-        <v>188.4376644211283</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I37" t="n">
         <v>100.8795751512015</v>
@@ -7119,28 +7119,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R37" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S37" t="n">
-        <v>2483.966387883395</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T37" t="n">
-        <v>2242.3619026018</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U37" t="n">
-        <v>1962.199601282859</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V37" t="n">
-        <v>1680.488133890888</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W37" t="n">
-        <v>1405.635730063401</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="X37" t="n">
-        <v>1163.071833509206</v>
+        <v>1466.706191313505</v>
       </c>
       <c r="Y37" t="n">
-        <v>936.7290651989483</v>
+        <v>1240.363423003247</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F38" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415554</v>
       </c>
       <c r="G38" t="n">
         <v>389.4778004379234</v>
@@ -7174,28 +7174,28 @@
         <v>100.8795751512015</v>
       </c>
       <c r="J38" t="n">
-        <v>147.0508243547012</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K38" t="n">
-        <v>975.4098302264308</v>
+        <v>1367.139048934057</v>
       </c>
       <c r="L38" t="n">
-        <v>2045.036147527296</v>
+        <v>2436.765366234923</v>
       </c>
       <c r="M38" t="n">
-        <v>3133.657244648307</v>
+        <v>2555.486803841977</v>
       </c>
       <c r="N38" t="n">
-        <v>4268.207348189648</v>
+        <v>2676.879022290515</v>
       </c>
       <c r="O38" t="n">
-        <v>4380.667597839847</v>
+        <v>3482.95005221204</v>
       </c>
       <c r="P38" t="n">
-        <v>4471.04340641688</v>
+        <v>4318.80474813913</v>
       </c>
       <c r="Q38" t="n">
-        <v>5022.93271090611</v>
+        <v>4870.694052628359</v>
       </c>
       <c r="R38" t="n">
         <v>5043.978757560076</v>
@@ -7250,31 +7250,31 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I39" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432517</v>
       </c>
       <c r="J39" t="n">
-        <v>125.6532705892104</v>
+        <v>441.2130689032133</v>
       </c>
       <c r="K39" t="n">
-        <v>180.1276402926181</v>
+        <v>1108.347606669961</v>
       </c>
       <c r="L39" t="n">
-        <v>260.9025658513265</v>
+        <v>1189.122532228669</v>
       </c>
       <c r="M39" t="n">
-        <v>358.3085851492286</v>
+        <v>1286.528551526571</v>
       </c>
       <c r="N39" t="n">
-        <v>460.6340567360988</v>
+        <v>1388.854023113442</v>
       </c>
       <c r="O39" t="n">
-        <v>1042.478147534413</v>
+        <v>1478.851121992112</v>
       </c>
       <c r="P39" t="n">
-        <v>1849.317980235683</v>
+        <v>1547.940104862103</v>
       </c>
       <c r="Q39" t="n">
-        <v>1887.390266210097</v>
+        <v>1781.934765925191</v>
       </c>
       <c r="R39" t="n">
         <v>1893.425567335224</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>908.3035441843222</v>
+        <v>1017.908947017889</v>
       </c>
       <c r="C40" t="n">
-        <v>908.3035441843222</v>
+        <v>845.9363838968054</v>
       </c>
       <c r="D40" t="n">
         <v>744.9867713110929</v>
@@ -7356,28 +7356,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R40" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S40" t="n">
-        <v>2483.966387883395</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T40" t="n">
-        <v>2242.3619026018</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U40" t="n">
-        <v>1962.199601282859</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V40" t="n">
-        <v>1842.228581588328</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W40" t="n">
-        <v>1567.376177760841</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="X40" t="n">
-        <v>1324.812281206646</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.469512896388</v>
+        <v>1208.074915729955</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1469.577146355633</v>
+        <v>1738.321807497514</v>
       </c>
       <c r="C41" t="n">
-        <v>1042.676416368933</v>
+        <v>1311.421077510814</v>
       </c>
       <c r="D41" t="n">
-        <v>1042.676416368933</v>
+        <v>888.1284566958147</v>
       </c>
       <c r="E41" t="n">
-        <v>1042.676416368933</v>
+        <v>462.1515168436724</v>
       </c>
       <c r="F41" t="n">
-        <v>617.5522345583331</v>
+        <v>462.1515168436724</v>
       </c>
       <c r="G41" t="n">
-        <v>214.1183500547016</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="H41" t="n">
-        <v>58.71763234004074</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I41" t="n">
-        <v>58.71763234004074</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="J41" t="n">
-        <v>302.7999537859986</v>
+        <v>357.3456734326031</v>
       </c>
       <c r="K41" t="n">
-        <v>1029.430653994003</v>
+        <v>434.7894165419724</v>
       </c>
       <c r="L41" t="n">
-        <v>1131.503001667295</v>
+        <v>1161.420116749978</v>
       </c>
       <c r="M41" t="n">
-        <v>1250.224439274349</v>
+        <v>1280.141554357032</v>
       </c>
       <c r="N41" t="n">
-        <v>1371.616657722888</v>
+        <v>1401.53377280557</v>
       </c>
       <c r="O41" t="n">
-        <v>1484.076907373087</v>
+        <v>2128.164473013575</v>
       </c>
       <c r="P41" t="n">
-        <v>2210.707607581091</v>
+        <v>2854.795173221581</v>
       </c>
       <c r="Q41" t="n">
-        <v>2762.59691207032</v>
+        <v>2914.835570348075</v>
       </c>
       <c r="R41" t="n">
-        <v>2935.881617002037</v>
+        <v>2935.881617002041</v>
       </c>
       <c r="S41" t="n">
-        <v>2852.141064429115</v>
+        <v>2935.881617002041</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.177909761289</v>
+        <v>2935.881617002041</v>
       </c>
       <c r="U41" t="n">
-        <v>2635.177909761289</v>
+        <v>2935.881617002041</v>
       </c>
       <c r="V41" t="n">
-        <v>2277.688494887539</v>
+        <v>2578.392202128291</v>
       </c>
       <c r="W41" t="n">
-        <v>1881.297145187885</v>
+        <v>2182.000852428638</v>
       </c>
       <c r="X41" t="n">
-        <v>1469.577146355633</v>
+        <v>2182.000852428638</v>
       </c>
       <c r="Y41" t="n">
-        <v>1469.577146355633</v>
+        <v>2158.170171789045</v>
       </c>
     </row>
     <row r="42">
@@ -7472,40 +7472,40 @@
         <v>503.1734642233257</v>
       </c>
       <c r="D42" t="n">
-        <v>399.3335057386107</v>
+        <v>399.3335057386108</v>
       </c>
       <c r="E42" t="n">
-        <v>294.6315720115479</v>
+        <v>294.631572011548</v>
       </c>
       <c r="F42" t="n">
         <v>200.9857416944521</v>
       </c>
       <c r="G42" t="n">
-        <v>107.4162827893293</v>
+        <v>107.4162827893294</v>
       </c>
       <c r="H42" t="n">
-        <v>58.71763234004074</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I42" t="n">
-        <v>82.50725403209087</v>
+        <v>59.04994818767911</v>
       </c>
       <c r="J42" t="n">
-        <v>399.0511260920525</v>
+        <v>375.5938202476407</v>
       </c>
       <c r="K42" t="n">
-        <v>453.5254957954603</v>
+        <v>775.4429941786061</v>
       </c>
       <c r="L42" t="n">
-        <v>534.3004213541687</v>
+        <v>856.2179197373144</v>
       </c>
       <c r="M42" t="n">
-        <v>631.7064406520709</v>
+        <v>953.6239390352166</v>
       </c>
       <c r="N42" t="n">
-        <v>734.0319122389411</v>
+        <v>1055.949410622087</v>
       </c>
       <c r="O42" t="n">
-        <v>824.0290111176114</v>
+        <v>1145.946509500757</v>
       </c>
       <c r="P42" t="n">
         <v>1215.035492370749</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1121.513964611775</v>
+        <v>733.1831076525339</v>
       </c>
       <c r="C43" t="n">
-        <v>949.5414014906908</v>
+        <v>561.2105445314498</v>
       </c>
       <c r="D43" t="n">
-        <v>786.2246286174615</v>
+        <v>397.8937716582205</v>
       </c>
       <c r="E43" t="n">
-        <v>786.2246286174615</v>
+        <v>396.4303446240664</v>
       </c>
       <c r="F43" t="n">
-        <v>614.3628543920219</v>
+        <v>224.5685703986268</v>
       </c>
       <c r="G43" t="n">
-        <v>448.5119163334359</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="H43" t="n">
-        <v>448.5119163334359</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I43" t="n">
-        <v>360.953827063509</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="J43" t="n">
-        <v>446.5803346380571</v>
+        <v>144.3441399145888</v>
       </c>
       <c r="K43" t="n">
-        <v>719.3426783021666</v>
+        <v>417.1064835786984</v>
       </c>
       <c r="L43" t="n">
-        <v>1133.19655187848</v>
+        <v>830.9603571550117</v>
       </c>
       <c r="M43" t="n">
-        <v>1586.763071747635</v>
+        <v>1284.526877024166</v>
       </c>
       <c r="N43" t="n">
-        <v>2025.152033312254</v>
+        <v>1722.915838588786</v>
       </c>
       <c r="O43" t="n">
-        <v>2436.828814240939</v>
+        <v>2134.592619517471</v>
       </c>
       <c r="P43" t="n">
-        <v>2775.558465416741</v>
+        <v>2473.322270693273</v>
       </c>
       <c r="Q43" t="n">
-        <v>2935.881617002037</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="R43" t="n">
-        <v>2907.099663025225</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="S43" t="n">
-        <v>2744.040639795703</v>
+        <v>2470.586399049047</v>
       </c>
       <c r="T43" t="n">
-        <v>2502.436154514107</v>
+        <v>2228.981913767451</v>
       </c>
       <c r="U43" t="n">
-        <v>2222.273853195166</v>
+        <v>1948.81961244851</v>
       </c>
       <c r="V43" t="n">
-        <v>1940.562385803195</v>
+        <v>1667.108145056539</v>
       </c>
       <c r="W43" t="n">
-        <v>1665.709981975708</v>
+        <v>1392.255741229052</v>
       </c>
       <c r="X43" t="n">
-        <v>1423.146085421513</v>
+        <v>1149.691844674858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1311.67993332384</v>
+        <v>923.3490763645996</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1413.600925724996</v>
+        <v>1518.381087212493</v>
       </c>
       <c r="C44" t="n">
-        <v>986.7001957382965</v>
+        <v>1518.381087212493</v>
       </c>
       <c r="D44" t="n">
-        <v>986.7001957382965</v>
+        <v>1095.088466397493</v>
       </c>
       <c r="E44" t="n">
-        <v>986.7001957382965</v>
+        <v>669.111526545351</v>
       </c>
       <c r="F44" t="n">
-        <v>561.5760139276967</v>
+        <v>243.9873447347512</v>
       </c>
       <c r="G44" t="n">
-        <v>158.1421294240652</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="H44" t="n">
-        <v>58.71763234004074</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I44" t="n">
-        <v>58.71763234004074</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="J44" t="n">
-        <v>496.6181002511665</v>
+        <v>104.8888815435405</v>
       </c>
       <c r="K44" t="n">
-        <v>1223.248800459171</v>
+        <v>465.8058264134776</v>
       </c>
       <c r="L44" t="n">
-        <v>1325.321148132463</v>
+        <v>1192.436526621483</v>
       </c>
       <c r="M44" t="n">
-        <v>1444.042585739517</v>
+        <v>1311.157964228537</v>
       </c>
       <c r="N44" t="n">
-        <v>1885.550006158789</v>
+        <v>2037.788664436542</v>
       </c>
       <c r="O44" t="n">
-        <v>2612.180706366793</v>
+        <v>2764.419364644547</v>
       </c>
       <c r="P44" t="n">
-        <v>2702.556514943826</v>
+        <v>2854.795173221581</v>
       </c>
       <c r="Q44" t="n">
-        <v>2762.59691207032</v>
+        <v>2914.835570348075</v>
       </c>
       <c r="R44" t="n">
-        <v>2935.881617002037</v>
+        <v>2935.881617002041</v>
       </c>
       <c r="S44" t="n">
-        <v>2852.141064429115</v>
+        <v>2935.881617002041</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.177909761289</v>
+        <v>2935.881617002041</v>
       </c>
       <c r="U44" t="n">
-        <v>2635.177909761289</v>
+        <v>2677.599121831007</v>
       </c>
       <c r="V44" t="n">
-        <v>2635.177909761289</v>
+        <v>2320.109706957256</v>
       </c>
       <c r="W44" t="n">
-        <v>2238.786560061636</v>
+        <v>1923.718357257603</v>
       </c>
       <c r="X44" t="n">
-        <v>2238.786560061636</v>
+        <v>1923.718357257603</v>
       </c>
       <c r="Y44" t="n">
-        <v>1833.449290016526</v>
+        <v>1518.381087212493</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1705.297360183796</v>
+        <v>620.6793677058209</v>
       </c>
       <c r="C45" t="n">
-        <v>1587.791456701301</v>
+        <v>503.1734642233257</v>
       </c>
       <c r="D45" t="n">
-        <v>1483.951498216586</v>
+        <v>399.3335057386108</v>
       </c>
       <c r="E45" t="n">
-        <v>1379.249564489523</v>
+        <v>294.631572011548</v>
       </c>
       <c r="F45" t="n">
-        <v>1285.603734172427</v>
+        <v>200.9857416944521</v>
       </c>
       <c r="G45" t="n">
-        <v>1192.034275267304</v>
+        <v>107.4162827893294</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.335624818016</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I45" t="n">
-        <v>1143.667940665654</v>
+        <v>82.50725403209094</v>
       </c>
       <c r="J45" t="n">
-        <v>1168.109320256024</v>
+        <v>399.0511260920526</v>
       </c>
       <c r="K45" t="n">
-        <v>1222.583689959432</v>
+        <v>453.5254957954604</v>
       </c>
       <c r="L45" t="n">
-        <v>1303.358615518141</v>
+        <v>534.3004213541687</v>
       </c>
       <c r="M45" t="n">
-        <v>1400.764634816043</v>
+        <v>631.7064406520709</v>
       </c>
       <c r="N45" t="n">
-        <v>1503.090106402913</v>
+        <v>1358.337140860076</v>
       </c>
       <c r="O45" t="n">
-        <v>2229.720806610917</v>
+        <v>1448.334239738746</v>
       </c>
       <c r="P45" t="n">
-        <v>2405.108985133629</v>
+        <v>1517.423222608738</v>
       </c>
       <c r="Q45" t="n">
-        <v>2929.84631587691</v>
+        <v>1739.77282311403</v>
       </c>
       <c r="R45" t="n">
-        <v>2935.881617002037</v>
+        <v>1851.263624524063</v>
       </c>
       <c r="S45" t="n">
-        <v>2863.553268840713</v>
+        <v>1778.935276362739</v>
       </c>
       <c r="T45" t="n">
-        <v>2723.625453902489</v>
+        <v>1639.007461424514</v>
       </c>
       <c r="U45" t="n">
-        <v>2538.88912051142</v>
+        <v>1454.271128033445</v>
       </c>
       <c r="V45" t="n">
-        <v>2333.915981650686</v>
+        <v>1249.297989172711</v>
       </c>
       <c r="W45" t="n">
-        <v>2137.394604483903</v>
+        <v>1052.776612005928</v>
       </c>
       <c r="X45" t="n">
-        <v>1973.917258250566</v>
+        <v>889.2992657725913</v>
       </c>
       <c r="Y45" t="n">
-        <v>1834.224369603858</v>
+        <v>749.6063771258837</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1006.63734839919</v>
+        <v>704.4011536757218</v>
       </c>
       <c r="C46" t="n">
-        <v>834.6647852781057</v>
+        <v>532.4285905546378</v>
       </c>
       <c r="D46" t="n">
-        <v>671.3480124048764</v>
+        <v>369.1118176814085</v>
       </c>
       <c r="E46" t="n">
-        <v>671.3480124048764</v>
+        <v>369.1118176814085</v>
       </c>
       <c r="F46" t="n">
-        <v>588.6981943621552</v>
+        <v>364.7548484273461</v>
       </c>
       <c r="G46" t="n">
-        <v>588.6981943621552</v>
+        <v>198.9039103687601</v>
       </c>
       <c r="H46" t="n">
-        <v>448.5119163334359</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="I46" t="n">
-        <v>360.953827063509</v>
+        <v>58.71763234004082</v>
       </c>
       <c r="J46" t="n">
-        <v>446.5803346380571</v>
+        <v>144.3441399145888</v>
       </c>
       <c r="K46" t="n">
-        <v>719.3426783021666</v>
+        <v>417.1064835786984</v>
       </c>
       <c r="L46" t="n">
-        <v>1133.19655187848</v>
+        <v>830.9603571550117</v>
       </c>
       <c r="M46" t="n">
-        <v>1586.763071747635</v>
+        <v>1284.526877024166</v>
       </c>
       <c r="N46" t="n">
-        <v>2025.152033312254</v>
+        <v>1722.915838588786</v>
       </c>
       <c r="O46" t="n">
-        <v>2436.828814240939</v>
+        <v>2134.592619517471</v>
       </c>
       <c r="P46" t="n">
-        <v>2775.558465416741</v>
+        <v>2473.322270693273</v>
       </c>
       <c r="Q46" t="n">
-        <v>2935.881617002037</v>
+        <v>2633.645422278569</v>
       </c>
       <c r="R46" t="n">
-        <v>2907.099663025225</v>
+        <v>2604.863468301757</v>
       </c>
       <c r="S46" t="n">
-        <v>2744.040639795703</v>
+        <v>2441.804445072235</v>
       </c>
       <c r="T46" t="n">
-        <v>2502.436154514107</v>
+        <v>2200.199959790639</v>
       </c>
       <c r="U46" t="n">
-        <v>2222.273853195166</v>
+        <v>1920.037658471698</v>
       </c>
       <c r="V46" t="n">
-        <v>1940.562385803195</v>
+        <v>1638.326191079727</v>
       </c>
       <c r="W46" t="n">
-        <v>1665.709981975708</v>
+        <v>1363.47378725224</v>
       </c>
       <c r="X46" t="n">
-        <v>1423.146085421513</v>
+        <v>1120.909890698046</v>
       </c>
       <c r="Y46" t="n">
-        <v>1196.803317111255</v>
+        <v>894.5671223877875</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>57.53626961840621</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7993,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>65.69167194305098</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>63.10497220679875</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>63.14896002761616</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>47.59141193553404</v>
+        <v>48.72742446615302</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8075,13 +8075,13 @@
         <v>51.28819985504191</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>41.22927722934065</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>48.75306611672156</v>
       </c>
       <c r="K4" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>50.69175002430551</v>
       </c>
       <c r="N4" t="n">
         <v>20.74890097560039</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>49.47948510062515</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>50.49711079080617</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>66.42835256544261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8236,7 +8236,7 @@
         <v>64.55565941243201</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>64.24098473741773</v>
       </c>
       <c r="R5" t="n">
         <v>63.14896002761616</v>
@@ -8300,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>50.63139684704925</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>50.07707811452869</v>
       </c>
       <c r="N6" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>51.28819985504191</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q6" t="n">
-        <v>49.72733589117921</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R6" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>49.08096458553168</v>
+        <v>47.9449520549127</v>
       </c>
       <c r="L7" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M7" t="n">
-        <v>50.69175002430551</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N7" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O7" t="n">
-        <v>49.47948510062515</v>
+        <v>50.61549763124414</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>50.49711079080617</v>
       </c>
       <c r="Q7" t="n">
         <v>24.61956276478495</v>
@@ -8458,22 +8458,22 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>114.8034077411299</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>114.7742293394937</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8537,25 +8537,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>464.1005135391148</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>382.6567356502052</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>255.0068604940026</v>
       </c>
       <c r="K11" t="n">
-        <v>409.8936817733716</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>630.8670227623356</v>
+        <v>630.8670227623363</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>611.3520017772385</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>620.3741924826323</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>642.6817087181532</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>606.4375362028486</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>635.5804857677801</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>325.1691902860057</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>655.7444011097331</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>630.8670227623363</v>
       </c>
       <c r="M14" t="n">
-        <v>614.04976020298</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>620.3741924826318</v>
+        <v>65.8602293641234</v>
       </c>
       <c r="P14" t="n">
-        <v>22.0026741246806</v>
+        <v>642.6817087181532</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.373558373128422</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>652.3795703528243</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>589.6384516178042</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>437.1561455535045</v>
+        <v>41.47006605085089</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.373558373128478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>374.2516139605343</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>359.0070276196224</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6217192283304</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.373558373128478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>390.2944359946852</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>590.9325680562821</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>276.3669013351009</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>750.4371686687416</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>328.1163446646381</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>138.3034543015458</v>
+        <v>88.62420161684787</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>623.1693673611946</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>296.6859465353922</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>205.2306051168448</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.4412797610248</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>390.2944359946852</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>197.9013889784581</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.230605116842</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>437.1561455535025</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>325.1691902860055</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>390.2944359946848</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>889.1964442081944</v>
+        <v>514.9674082391026</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>1.373558373128478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>348.8634386136939</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>979.6966257716731</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>700.6169497690155</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>496.8151433531756</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>197.9013889784585</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>199.910173982281</v>
+        <v>255.0068604940026</v>
       </c>
       <c r="K41" t="n">
-        <v>655.7444011097322</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>630.8670227623363</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>620.3741924826323</v>
       </c>
       <c r="P41" t="n">
-        <v>642.6817087181523</v>
+        <v>642.6817087181532</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>348.8634386136945</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>325.1691902860057</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>655.7444011097322</v>
+        <v>286.336567434917</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>630.8670227623363</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>323.3486888593263</v>
+        <v>611.3520017772391</v>
       </c>
       <c r="O44" t="n">
-        <v>620.3741924826314</v>
+        <v>620.3741924826323</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>630.6113420415504</v>
       </c>
       <c r="O45" t="n">
-        <v>643.064243767004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>107.3729249017374</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>186.1387015463422</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>122.3573390911874</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>399.3995456585952</v>
       </c>
       <c r="H11" t="n">
-        <v>265.6811254551455</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>90.00966481418872</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>62.69330584451487</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>299.1372891292907</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.329990691329</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>108.0211363492606</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.7844152484321</v>
+        <v>90.23762312168563</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>29.90786031740922</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>255.3747839430689</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>114.0815451611337</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.1924286780001</v>
+        <v>163.0973310248623</v>
       </c>
       <c r="H22" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>168.692275565841</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.72280392638066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.499846887841244</v>
+        <v>88.3514064048627</v>
       </c>
       <c r="G28" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I28" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>21.44830897872109</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H31" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>62.68822082802481</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>21.44830897872097</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>255.6299560903391</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>82.72280392638055</v>
+        <v>29.77786648408227</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>61.74348868464158</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>160.1230432204651</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>131.8655324963405</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U41" t="n">
         <v>255.6996702193238</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>377.6915235114614</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>163.0973310248623</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>138.7844152484321</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.7278500504592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>215.9825303878319</v>
       </c>
       <c r="H44" t="n">
-        <v>187.2819909206705</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>88.31983662089118</v>
+        <v>165.8297569216634</v>
       </c>
       <c r="G46" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>445888.3391921959</v>
+        <v>445888.3391921961</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>445888.3391921958</v>
+        <v>445888.339192196</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638092.0234888527</v>
+        <v>638092.0234888525</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>638092.0234888525</v>
+        <v>638092.0234888524</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>638092.0234888527</v>
+        <v>638092.0234888525</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>445888.3391921957</v>
+        <v>445888.3391921961</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>445888.3391921957</v>
+        <v>445888.339192196</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094887</v>
       </c>
       <c r="C2" t="n">
         <v>495076.2678094886</v>
@@ -26322,40 +26322,40 @@
         <v>495076.2678094888</v>
       </c>
       <c r="E2" t="n">
-        <v>348184.912947344</v>
+        <v>348184.9129473444</v>
       </c>
       <c r="F2" t="n">
-        <v>348184.9129473438</v>
+        <v>348184.9129473443</v>
       </c>
       <c r="G2" t="n">
-        <v>486568.2766721025</v>
+        <v>486568.2766721023</v>
       </c>
       <c r="H2" t="n">
-        <v>486568.2766721025</v>
+        <v>486568.2766721023</v>
       </c>
       <c r="I2" t="n">
-        <v>486568.2766721028</v>
+        <v>486568.2766721024</v>
       </c>
       <c r="J2" t="n">
         <v>486568.2766721026</v>
       </c>
       <c r="K2" t="n">
-        <v>486568.2766721022</v>
+        <v>486568.2766721025</v>
       </c>
       <c r="L2" t="n">
-        <v>486568.2766721023</v>
+        <v>486568.2766721024</v>
       </c>
       <c r="M2" t="n">
+        <v>486568.2766721025</v>
+      </c>
+      <c r="N2" t="n">
         <v>486568.2766721026</v>
       </c>
-      <c r="N2" t="n">
-        <v>486568.2766721023</v>
-      </c>
       <c r="O2" t="n">
-        <v>348184.9129473441</v>
+        <v>348184.9129473444</v>
       </c>
       <c r="P2" t="n">
-        <v>348184.9129473441</v>
+        <v>348184.9129473443</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>134590.8833097748</v>
       </c>
       <c r="E3" t="n">
-        <v>260471.2211472383</v>
+        <v>260471.2211472385</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>144449.4511924625</v>
+        <v>144449.4511924623</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391494</v>
+        <v>7356.463848391435</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>109660.1785009631</v>
+        <v>109660.1785009632</v>
       </c>
       <c r="M3" t="n">
-        <v>67925.65850574565</v>
+        <v>67925.65850574595</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>245362.1265510739</v>
       </c>
       <c r="E4" t="n">
-        <v>77777.75542918836</v>
+        <v>77777.75542918839</v>
       </c>
       <c r="F4" t="n">
-        <v>77777.75542918834</v>
+        <v>77777.7554291884</v>
       </c>
       <c r="G4" t="n">
         <v>123707.0424405925</v>
@@ -26450,16 +26450,16 @@
         <v>123707.0424405925</v>
       </c>
       <c r="M4" t="n">
-        <v>123707.0424405924</v>
+        <v>123707.0424405925</v>
       </c>
       <c r="N4" t="n">
         <v>123707.0424405925</v>
       </c>
       <c r="O4" t="n">
-        <v>77777.75542918833</v>
+        <v>77777.7554291884</v>
       </c>
       <c r="P4" t="n">
-        <v>77777.75542918831</v>
+        <v>77777.7554291884</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>49484.86853823328</v>
+        <v>49484.86853823332</v>
       </c>
       <c r="F5" t="n">
-        <v>49484.86853823328</v>
+        <v>49484.86853823332</v>
       </c>
       <c r="G5" t="n">
         <v>81527.94507471545</v>
@@ -26493,25 +26493,25 @@
         <v>81527.94507471545</v>
       </c>
       <c r="J5" t="n">
+        <v>81527.94507471543</v>
+      </c>
+      <c r="K5" t="n">
+        <v>81527.94507471543</v>
+      </c>
+      <c r="L5" t="n">
+        <v>81527.94507471542</v>
+      </c>
+      <c r="M5" t="n">
         <v>81527.94507471545</v>
-      </c>
-      <c r="K5" t="n">
-        <v>81527.94507471545</v>
-      </c>
-      <c r="L5" t="n">
-        <v>81527.94507471543</v>
-      </c>
-      <c r="M5" t="n">
-        <v>81527.94507471543</v>
       </c>
       <c r="N5" t="n">
         <v>81527.94507471545</v>
       </c>
       <c r="O5" t="n">
-        <v>49484.86853823326</v>
+        <v>49484.86853823332</v>
       </c>
       <c r="P5" t="n">
-        <v>49484.86853823326</v>
+        <v>49484.86853823332</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>134091.1719802599</v>
       </c>
       <c r="C6" t="n">
-        <v>143513.5941809007</v>
+        <v>143513.5941809008</v>
       </c>
       <c r="D6" t="n">
-        <v>53442.54367841181</v>
+        <v>53442.54367841184</v>
       </c>
       <c r="E6" t="n">
-        <v>-39548.93216731602</v>
+        <v>-39980.96556396922</v>
       </c>
       <c r="F6" t="n">
-        <v>220922.2889799222</v>
+        <v>220490.2555832692</v>
       </c>
       <c r="G6" t="n">
-        <v>136883.837964332</v>
+        <v>136858.8144609868</v>
       </c>
       <c r="H6" t="n">
-        <v>281333.2891567945</v>
+        <v>281308.2656534492</v>
       </c>
       <c r="I6" t="n">
-        <v>281333.2891567948</v>
+        <v>281308.2656534492</v>
       </c>
       <c r="J6" t="n">
-        <v>273976.8253084031</v>
+        <v>273951.8018050581</v>
       </c>
       <c r="K6" t="n">
-        <v>281333.2891567943</v>
+        <v>281308.2656534493</v>
       </c>
       <c r="L6" t="n">
-        <v>171673.1106558312</v>
+        <v>171648.0871524861</v>
       </c>
       <c r="M6" t="n">
-        <v>213407.6306510491</v>
+        <v>213382.6071477033</v>
       </c>
       <c r="N6" t="n">
-        <v>281333.2891567944</v>
+        <v>281308.2656534494</v>
       </c>
       <c r="O6" t="n">
-        <v>220922.2889799225</v>
+        <v>220490.2555832693</v>
       </c>
       <c r="P6" t="n">
-        <v>220922.2889799225</v>
+        <v>220490.2555832692</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>733.9704042505095</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="F4" t="n">
-        <v>733.9704042505095</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="G4" t="n">
         <v>1260.994689390019</v>
@@ -26819,7 +26819,7 @@
         <v>1260.994689390019</v>
       </c>
       <c r="L4" t="n">
-        <v>1260.994689390019</v>
+        <v>1260.994689390018</v>
       </c>
       <c r="M4" t="n">
         <v>1260.994689390019</v>
@@ -26828,10 +26828,10 @@
         <v>1260.994689390019</v>
       </c>
       <c r="O4" t="n">
-        <v>733.9704042505093</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="P4" t="n">
-        <v>733.9704042505093</v>
+        <v>733.9704042505102</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>433.2835956275145</v>
       </c>
       <c r="E4" t="n">
-        <v>272.5704984901753</v>
+        <v>272.570498490176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>527.0242851395096</v>
+        <v>527.0242851395087</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281976</v>
+        <v>28.11631013281954</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>433.2835956275139</v>
+        <v>433.2835956275143</v>
       </c>
       <c r="M4" t="n">
-        <v>272.5704984901753</v>
+        <v>272.5704984901765</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>433.2835956275145</v>
       </c>
       <c r="M4" t="n">
-        <v>272.5704984901753</v>
+        <v>272.570498490176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>527.0242851395096</v>
+        <v>527.0242851395087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27460,7 +27460,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>91.56599848268269</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
         <v>102.8015588998678</v>
@@ -27475,7 +27475,7 @@
         <v>64.99692393175235</v>
       </c>
       <c r="H3" t="n">
-        <v>24.72602217249382</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27517,13 +27517,13 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>174.8070973393067</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>137.0777268060162</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -27551,13 +27551,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>139.8295540437226</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>114.2419956741075</v>
       </c>
       <c r="I4" t="n">
-        <v>70.65457244430709</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>250.7780425852317</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>243.9875696563924</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.9630304943357</v>
+        <v>199.3144946621678</v>
       </c>
     </row>
     <row r="5">
@@ -27697,19 +27697,19 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>88.21453431485057</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>75.53860425697246</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>68.34838809958447</v>
       </c>
       <c r="H6" t="n">
         <v>52.84233230531351</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>55.74615899937044</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>154.80420398674</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -27763,7 +27763,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.1796496274208</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.1479988921253</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -27794,7 +27794,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>70.65457244430709</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>216.1411083313714</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>252.6177580497112</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>250.7780425852317</v>
       </c>
       <c r="W7" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>212.0219474558332</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>195.9630304943357</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>318.5130220887419</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>201.2597211449137</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>68.89668990430255</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>6.811298442405096</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -34701,28 +34701,28 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>26.98029760220071</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>28.11631013281968</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>19.45843602451199</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="P4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="P4" t="n">
-        <v>26.98029760220071</v>
-      </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>26.98029760220071</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R5" t="n">
         <v>28.11631013281968</v>
@@ -35020,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>442.7574853255732</v>
+      </c>
+      <c r="O9" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>359.9096973612267</v>
-      </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>46.63762545808047</v>
+        <v>301.6444859520831</v>
       </c>
       <c r="K11" t="n">
-        <v>488.1196849141486</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L11" t="n">
-        <v>733.9704042505095</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="M11" t="n">
         <v>119.9206440475296</v>
       </c>
       <c r="N11" t="n">
-        <v>733.9704042505095</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O11" t="n">
-        <v>113.5962117678778</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="P11" t="n">
-        <v>91.28869553235688</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="Q11" t="n">
-        <v>557.4639439285145</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R11" t="n">
         <v>21.25863298380406</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J12" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K12" t="n">
-        <v>661.4621520648767</v>
+        <v>55.02461586202807</v>
       </c>
       <c r="L12" t="n">
         <v>81.59083389768524</v>
       </c>
       <c r="M12" t="n">
-        <v>733.9704042505095</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N12" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O12" t="n">
-        <v>90.90616048350532</v>
+        <v>416.075350769511</v>
       </c>
       <c r="P12" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R12" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>442.3237049607332</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K14" t="n">
-        <v>78.22600314077711</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="L14" t="n">
-        <v>103.1033814881739</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="M14" t="n">
-        <v>733.9704042505095</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N14" t="n">
         <v>122.6184024732711</v>
       </c>
       <c r="O14" t="n">
-        <v>733.9704042505095</v>
+        <v>179.4564411320012</v>
       </c>
       <c r="P14" t="n">
-        <v>113.2913696570375</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="Q14" t="n">
-        <v>557.4639439285145</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R14" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J15" t="n">
-        <v>24.68826221249551</v>
+        <v>26.06182058562393</v>
       </c>
       <c r="K15" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L15" t="n">
-        <v>733.9704042505095</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M15" t="n">
         <v>98.38991848272941</v>
@@ -35743,13 +35743,13 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P15" t="n">
-        <v>659.4253030016342</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R15" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K17" t="n">
-        <v>515.3821486942816</v>
+        <v>119.696069191628</v>
       </c>
       <c r="L17" t="n">
         <v>1080.430623536228</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J18" t="n">
-        <v>24.68826221249551</v>
+        <v>26.06182058562398</v>
       </c>
       <c r="K18" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L18" t="n">
-        <v>949.3572419077797</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M18" t="n">
         <v>98.38991848272941</v>
       </c>
       <c r="N18" t="n">
-        <v>477.6106761694941</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O18" t="n">
         <v>90.90616048350532</v>
@@ -35983,10 +35983,10 @@
         <v>69.78685138383</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R18" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46.63762545808047</v>
+        <v>405.6446530777029</v>
       </c>
       <c r="K20" t="n">
-        <v>440.8477223691075</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L20" t="n">
-        <v>103.1033814881739</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M20" t="n">
-        <v>1171.782312420758</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N20" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O20" t="n">
         <v>1004.668635922702</v>
@@ -36141,10 +36141,10 @@
         <v>844.2976726536263</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R20" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J21" t="n">
-        <v>24.68826221249551</v>
+        <v>26.06182058562398</v>
       </c>
       <c r="K21" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L21" t="n">
         <v>81.59083389768524</v>
       </c>
       <c r="M21" t="n">
-        <v>488.6843544774146</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N21" t="n">
         <v>103.3590622089598</v>
@@ -36217,10 +36217,10 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P21" t="n">
-        <v>814.9897300012829</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R21" t="n">
         <v>112.6169711212452</v>
@@ -36360,19 +36360,19 @@
         <v>46.63762545808047</v>
       </c>
       <c r="K23" t="n">
-        <v>78.22600314077711</v>
+        <v>669.1585711970592</v>
       </c>
       <c r="L23" t="n">
         <v>1080.430623536228</v>
       </c>
       <c r="M23" t="n">
-        <v>1171.782312420758</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N23" t="n">
         <v>1146.010205597314</v>
       </c>
       <c r="O23" t="n">
-        <v>389.9631131029787</v>
+        <v>1004.668635922702</v>
       </c>
       <c r="P23" t="n">
         <v>844.2976726536263</v>
@@ -36381,7 +36381,7 @@
         <v>60.64686578433751</v>
       </c>
       <c r="R23" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J24" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K24" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L24" t="n">
         <v>81.59083389768524</v>
@@ -36451,13 +36451,13 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O24" t="n">
-        <v>841.343329152247</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P24" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q24" t="n">
-        <v>530.0377078214968</v>
+        <v>366.5731991842479</v>
       </c>
       <c r="R24" t="n">
         <v>6.096263762754479</v>
@@ -36597,13 +36597,13 @@
         <v>46.63762545808047</v>
       </c>
       <c r="K26" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L26" t="n">
         <v>1080.430623536228</v>
       </c>
       <c r="M26" t="n">
-        <v>1171.782312420758</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N26" t="n">
         <v>1146.010205597314</v>
@@ -36612,13 +36612,13 @@
         <v>1004.668635922702</v>
       </c>
       <c r="P26" t="n">
-        <v>229.5921498339027</v>
+        <v>179.9128971492048</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R26" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J27" t="n">
         <v>24.68826221249551</v>
       </c>
       <c r="K27" t="n">
-        <v>673.8732704714621</v>
+        <v>55.02461586202807</v>
       </c>
       <c r="L27" t="n">
-        <v>704.7602012588799</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M27" t="n">
         <v>98.38991848272941</v>
@@ -36688,13 +36688,13 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O27" t="n">
-        <v>90.90616048350532</v>
+        <v>1012.543987591052</v>
       </c>
       <c r="P27" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q27" t="n">
-        <v>38.45685451960989</v>
+        <v>335.1428010550021</v>
       </c>
       <c r="R27" t="n">
         <v>6.096263762754479</v>
@@ -36843,19 +36843,19 @@
         <v>119.9206440475296</v>
       </c>
       <c r="N29" t="n">
-        <v>327.8490075901159</v>
+        <v>1146.010205597314</v>
       </c>
       <c r="O29" t="n">
         <v>1004.668635922702</v>
       </c>
       <c r="P29" t="n">
-        <v>844.2976726536263</v>
+        <v>676.7299752933817</v>
       </c>
       <c r="Q29" t="n">
-        <v>557.4639439285145</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R29" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J30" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K30" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L30" t="n">
         <v>81.59083389768524</v>
@@ -36922,16 +36922,16 @@
         <v>98.38991848272941</v>
       </c>
       <c r="N30" t="n">
-        <v>493.653498203645</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O30" t="n">
         <v>90.90616048350532</v>
       </c>
       <c r="P30" t="n">
-        <v>814.9897300012829</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q30" t="n">
-        <v>38.45685451960989</v>
+        <v>236.358243498068</v>
       </c>
       <c r="R30" t="n">
         <v>112.6169711212452</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>46.63762545808047</v>
+        <v>251.8682305749225</v>
       </c>
       <c r="K32" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L32" t="n">
         <v>1080.430623536228</v>
       </c>
       <c r="M32" t="n">
-        <v>557.0767896010321</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N32" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O32" t="n">
         <v>1004.668635922702</v>
@@ -37089,7 +37089,7 @@
         <v>844.2976726536263</v>
       </c>
       <c r="Q32" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R32" t="n">
         <v>175.035055486583</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J33" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K33" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480335</v>
       </c>
       <c r="L33" t="n">
         <v>81.59083389768524</v>
@@ -37165,10 +37165,10 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P33" t="n">
-        <v>814.9897300012829</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q33" t="n">
-        <v>428.7512905142947</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R33" t="n">
         <v>112.6169711212452</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K35" t="n">
         <v>78.22600314077711</v>
       </c>
       <c r="L35" t="n">
-        <v>992.2998256963683</v>
+        <v>618.0707897272765</v>
       </c>
       <c r="M35" t="n">
         <v>1171.782312420758</v>
       </c>
       <c r="N35" t="n">
-        <v>122.6184024732711</v>
+        <v>1146.010205597314</v>
       </c>
       <c r="O35" t="n">
-        <v>1004.668635922702</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P35" t="n">
         <v>844.2976726536263</v>
@@ -37329,7 +37329,7 @@
         <v>557.4639439285145</v>
       </c>
       <c r="R35" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J36" t="n">
-        <v>319.7412849090522</v>
+        <v>26.06182058562398</v>
       </c>
       <c r="K36" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L36" t="n">
         <v>81.59083389768524</v>
@@ -37402,7 +37402,7 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P36" t="n">
-        <v>418.6502899975239</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q36" t="n">
         <v>530.0377078214968</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K38" t="n">
         <v>836.7262685573027</v>
@@ -37551,22 +37551,22 @@
         <v>1080.430623536228</v>
       </c>
       <c r="M38" t="n">
-        <v>1099.617269819203</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N38" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O38" t="n">
-        <v>113.5962117678778</v>
+        <v>814.2131615368933</v>
       </c>
       <c r="P38" t="n">
-        <v>91.28869553235688</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q38" t="n">
         <v>557.4639439285145</v>
       </c>
       <c r="R38" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J39" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K39" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L39" t="n">
         <v>81.59083389768524</v>
@@ -37636,16 +37636,16 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O39" t="n">
-        <v>587.7213038366809</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P39" t="n">
-        <v>814.9897300012829</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q39" t="n">
-        <v>38.45685451960989</v>
+        <v>236.3582434980684</v>
       </c>
       <c r="R39" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>246.5477994403614</v>
+        <v>301.6444859520831</v>
       </c>
       <c r="K41" t="n">
-        <v>733.9704042505093</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L41" t="n">
-        <v>103.1033814881739</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="M41" t="n">
         <v>119.9206440475296</v>
@@ -37794,16 +37794,16 @@
         <v>122.6184024732711</v>
       </c>
       <c r="O41" t="n">
-        <v>113.5962117678778</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="P41" t="n">
-        <v>733.9704042505093</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="Q41" t="n">
-        <v>557.4639439285145</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R41" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>24.02992090106073</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J42" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K42" t="n">
-        <v>55.02461586202807</v>
+        <v>403.8880544757226</v>
       </c>
       <c r="L42" t="n">
         <v>81.59083389768524</v>
@@ -37876,7 +37876,7 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P42" t="n">
-        <v>394.9560416698357</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q42" t="n">
         <v>530.0377078214968</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>442.3237049607332</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K44" t="n">
-        <v>733.9704042505093</v>
+        <v>364.5625705756941</v>
       </c>
       <c r="L44" t="n">
-        <v>103.1033814881739</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="M44" t="n">
         <v>119.9206440475296</v>
       </c>
       <c r="N44" t="n">
-        <v>445.9670913325975</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="O44" t="n">
-        <v>733.9704042505093</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="P44" t="n">
         <v>91.28869553235688</v>
@@ -38040,7 +38040,7 @@
         <v>60.64686578433751</v>
       </c>
       <c r="R44" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J45" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K45" t="n">
         <v>55.02461586202807</v>
@@ -38107,19 +38107,19 @@
         <v>98.38991848272941</v>
       </c>
       <c r="N45" t="n">
-        <v>103.3590622089598</v>
+        <v>733.9704042505102</v>
       </c>
       <c r="O45" t="n">
-        <v>733.9704042505093</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P45" t="n">
-        <v>177.1597762855674</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q45" t="n">
-        <v>530.0377078214968</v>
+        <v>224.5955560659521</v>
       </c>
       <c r="R45" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
